--- a/Result/check3/2025-04-02.xlsx
+++ b/Result/check3/2025-04-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>-1.5</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>31341</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.44</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.03</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1755.0</t>
+          <t>3537.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-11.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16.98</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-15.0</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -985,62 +985,62 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,32 +1055,32 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>303152.0</t>
+          <t>-8284.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1095,52 +1095,52 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>30.93</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>6199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1847.0</t>
+          <t>1755.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>16.98</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-27.78</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1227,62 +1227,62 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>681</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-8.33</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>244.0</t>
+          <t>122.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1307,22 +1307,22 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>42554.0</t>
+          <t>303152.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>天品</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1337,52 +1337,52 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>80.64%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>-2.58%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>天品-其他-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15380.0</t>
+          <t>1847.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>52.61</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2224</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>244.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,27 +1539,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-350354.0</t>
+          <t>42554.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1574,47 +1574,47 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>582.5</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -1651,235 +1651,477 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15380.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>52.61</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7287</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>-350354.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>哲固</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>19.83%</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>哲固-光電業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>3297</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>9.69</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>3504.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>12.04</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>0.36</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>26.66</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>24.2</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>14.34</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1690</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5860</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>1.55</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>4.24</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>83.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>80553.0</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>杭特</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>33.49%</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>-25.64%</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>60.37</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>1018</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>杭特-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>15.63</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>

--- a/Result/check3/2025-04-02.xlsx
+++ b/Result/check3/2025-04-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-3.85</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>105</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>31341</t>
+          <t>24720</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-10.38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.03</t>
+          <t>30.42</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>773</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>30.93</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1755.0</t>
+          <t>1847.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.98</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-27.78</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>768</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10.62</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-8.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>244.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>303152.0</t>
+          <t>42554.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1337,52 +1337,52 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1847.0</t>
+          <t>15380.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>52.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,72 +1459,72 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>57</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>7536</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>244.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,27 +1539,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>42554.0</t>
+          <t>-350354.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1574,47 +1574,47 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>582.5</t>
+          <t>34.01</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15380.0</t>
+          <t>3504.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>52.61</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,57 +1701,57 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>29.14</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7287</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,27 +1781,27 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-350354.0</t>
+          <t>80553.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1816,47 +1816,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1880,248 +1880,6 @@
         </is>
       </c>
       <c r="AV6" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3504.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>26.66</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>24.2</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>22.06</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5860</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>80553.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>33.49%</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>61.25</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1119</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>杭特-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>

--- a/Result/check3/2025-04-02.xlsx
+++ b/Result/check3/2025-04-02.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-3.85</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>24720</t>
+          <t>24854</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-10.38</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>36.51</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>30.42</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3566</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>32.56</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>703.33</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>23.16</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7536</t>
+          <t>7612</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>34.01</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">

--- a/Result/check3/2025-04-02.xlsx
+++ b/Result/check3/2025-04-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>24854</t>
+          <t>19644</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>36.51</t>
+          <t>40.13</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>32.21</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3730</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3537.0</t>
+          <t>1847.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-11.82</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,32 +975,32 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>92</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1020,27 +1020,27 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>244.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1055,32 +1055,32 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-8284.0</t>
+          <t>42554.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1095,52 +1095,52 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>703.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>32.56</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1847.0</t>
+          <t>15380.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>52.61</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,57 +1217,57 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>726</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>244.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,27 +1297,27 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>42554.0</t>
+          <t>-350354.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1332,47 +1332,47 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>703.33</t>
+          <t>41.08</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15380.0</t>
+          <t>3504.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>52.61</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,57 +1459,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>24.84</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7612</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1539,27 +1539,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-350354.0</t>
+          <t>80553.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1574,47 +1574,47 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>37.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1638,248 +1638,6 @@
         </is>
       </c>
       <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3504.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>26.66</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>24.2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>28.82</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>80553.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>33.49%</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>67.41</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>1226</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>杭特-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
